--- a/InputDoc/EvapStruc.xlsx
+++ b/InputDoc/EvapStruc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -32,25 +32,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>the followings are node information</t>
-  </si>
-  <si>
-    <t>the following are branch information</t>
-  </si>
-  <si>
-    <t>the following are tube information</t>
-  </si>
-  <si>
     <t>node number (headers)</t>
   </si>
   <si>
-    <t>branch number</t>
-  </si>
-  <si>
     <t>row number</t>
-  </si>
-  <si>
-    <t>tube number</t>
   </si>
   <si>
     <t>segment number of per tube</t>
@@ -129,6 +114,21 @@
   </si>
   <si>
     <t>even</t>
+  </si>
+  <si>
+    <t>please see sheet "node" for more information about the headers</t>
+  </si>
+  <si>
+    <t>branch number (circuit)</t>
+  </si>
+  <si>
+    <t>tube number (total)</t>
+  </si>
+  <si>
+    <t>please see sheet "branch" for more information about the circuits</t>
+  </si>
+  <si>
+    <t>please see sheet "tube"for more information about the tube</t>
   </si>
 </sst>
 </file>
@@ -505,17 +505,17 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -547,7 +547,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
         <v>0.36230000000000001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -571,12 +571,12 @@
         <v>0.94389999999999996</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -645,7 +645,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -950,30 +950,30 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="G20" t="s">
         <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -2704,13 +2704,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2794,16 +2794,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -3127,7 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -3139,25 +3139,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">

--- a/InputDoc/EvapStruc.xlsx
+++ b/InputDoc/EvapStruc.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="description" sheetId="1" r:id="rId1"/>
     <sheet name="node" sheetId="2" r:id="rId2"/>
     <sheet name="branch" sheetId="3" r:id="rId3"/>
     <sheet name="tube" sheetId="4" r:id="rId4"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>node number (headers)</t>
   </si>
@@ -45,27 +45,6 @@
   </si>
   <si>
     <t>air flow rate [m^3/s]</t>
-  </si>
-  <si>
-    <t>#No</t>
-  </si>
-  <si>
-    <t>#Row</t>
-  </si>
-  <si>
-    <t>#Ref</t>
-  </si>
-  <si>
-    <t>#up</t>
-  </si>
-  <si>
-    <t>#down</t>
-  </si>
-  <si>
-    <t>#GaF</t>
-  </si>
-  <si>
-    <t>#Even</t>
   </si>
   <si>
     <t>EvapStruc</t>
@@ -116,19 +95,10 @@
     <t>even</t>
   </si>
   <si>
-    <t>please see sheet "node" for more information about the headers</t>
-  </si>
-  <si>
     <t>branch number (circuit)</t>
   </si>
   <si>
     <t>tube number (total)</t>
-  </si>
-  <si>
-    <t>please see sheet "branch" for more information about the circuits</t>
-  </si>
-  <si>
-    <t>please see sheet "tube"for more information about the tube</t>
   </si>
 </sst>
 </file>
@@ -502,23 +472,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -526,15 +496,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -542,15 +512,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -558,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.36230000000000001</v>
       </c>
@@ -566,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.94389999999999996</v>
       </c>
@@ -574,2077 +544,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5</v>
-      </c>
-      <c r="K13" s="3">
-        <v>66</v>
-      </c>
-      <c r="L13" s="3">
-        <v>67</v>
-      </c>
-      <c r="M13" s="3">
-        <v>68</v>
-      </c>
-      <c r="N13" s="3">
-        <v>69</v>
-      </c>
-      <c r="O13" s="3">
-        <v>70</v>
-      </c>
-      <c r="P13" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3">
-        <v>16</v>
-      </c>
-      <c r="J14" s="3">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3">
-        <v>42</v>
-      </c>
-      <c r="L14" s="3">
-        <v>43</v>
-      </c>
-      <c r="M14" s="3">
-        <v>44</v>
-      </c>
-      <c r="N14" s="3">
-        <v>45</v>
-      </c>
-      <c r="O14" s="3">
-        <v>46</v>
-      </c>
-      <c r="P14" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3">
-        <v>26</v>
-      </c>
-      <c r="H15" s="3">
-        <v>27</v>
-      </c>
-      <c r="I15" s="3">
-        <v>28</v>
-      </c>
-      <c r="J15" s="3">
-        <v>29</v>
-      </c>
-      <c r="K15" s="3">
-        <v>54</v>
-      </c>
-      <c r="L15" s="3">
-        <v>55</v>
-      </c>
-      <c r="M15" s="3">
-        <v>56</v>
-      </c>
-      <c r="N15" s="3">
-        <v>57</v>
-      </c>
-      <c r="O15" s="3">
-        <v>58</v>
-      </c>
-      <c r="P15" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3">
-        <v>37</v>
-      </c>
-      <c r="G16" s="3">
-        <v>38</v>
-      </c>
-      <c r="H16" s="3">
-        <v>39</v>
-      </c>
-      <c r="I16" s="3">
-        <v>40</v>
-      </c>
-      <c r="J16" s="3">
-        <v>41</v>
-      </c>
-      <c r="K16" s="3">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3">
-        <v>19</v>
-      </c>
-      <c r="M16" s="3">
-        <v>20</v>
-      </c>
-      <c r="N16" s="3">
-        <v>21</v>
-      </c>
-      <c r="O16" s="3">
-        <v>22</v>
-      </c>
-      <c r="P16" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3">
-        <v>48</v>
-      </c>
-      <c r="F17" s="3">
-        <v>49</v>
-      </c>
-      <c r="G17" s="3">
-        <v>50</v>
-      </c>
-      <c r="H17" s="3">
-        <v>51</v>
-      </c>
-      <c r="I17" s="3">
-        <v>52</v>
-      </c>
-      <c r="J17" s="3">
-        <v>53</v>
-      </c>
-      <c r="K17" s="3">
-        <v>30</v>
-      </c>
-      <c r="L17" s="3">
-        <v>31</v>
-      </c>
-      <c r="M17" s="3">
-        <v>32</v>
-      </c>
-      <c r="N17" s="3">
-        <v>33</v>
-      </c>
-      <c r="O17" s="3">
-        <v>34</v>
-      </c>
-      <c r="P17" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3">
-        <v>60</v>
-      </c>
-      <c r="F18" s="3">
-        <v>61</v>
-      </c>
-      <c r="G18" s="3">
-        <v>62</v>
-      </c>
-      <c r="H18" s="3">
-        <v>63</v>
-      </c>
-      <c r="I18" s="3">
-        <v>64</v>
-      </c>
-      <c r="J18" s="3">
-        <v>65</v>
-      </c>
-      <c r="K18" s="3">
-        <v>6</v>
-      </c>
-      <c r="L18" s="3">
-        <v>7</v>
-      </c>
-      <c r="M18" s="3">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
-        <v>9</v>
-      </c>
-      <c r="O18" s="3">
-        <v>10</v>
-      </c>
-      <c r="P18" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>65</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>8</v>
-      </c>
-      <c r="B29" s="3">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>7</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3">
-        <v>6</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>10</v>
-      </c>
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3">
-        <v>11</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>11</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>16</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>14</v>
-      </c>
-      <c r="E33" s="3">
-        <v>13</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>15</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>14</v>
-      </c>
-      <c r="D36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>16</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>15</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>15</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>17</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>16</v>
-      </c>
-      <c r="D38" s="3">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3">
-        <v>14</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>18</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3">
-        <v>41</v>
-      </c>
-      <c r="D39" s="3">
-        <v>17</v>
-      </c>
-      <c r="E39" s="3">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>19</v>
-      </c>
-      <c r="B40" s="3">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3">
-        <v>18</v>
-      </c>
-      <c r="D40" s="3">
-        <v>16</v>
-      </c>
-      <c r="E40" s="3">
-        <v>17</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>20</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3">
-        <v>19</v>
-      </c>
-      <c r="D41" s="3">
-        <v>11</v>
-      </c>
-      <c r="E41" s="3">
-        <v>19</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3">
-        <v>20</v>
-      </c>
-      <c r="D42" s="3">
-        <v>19</v>
-      </c>
-      <c r="E42" s="3">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3">
-        <v>21</v>
-      </c>
-      <c r="D43" s="3">
-        <v>18</v>
-      </c>
-      <c r="E43" s="3">
-        <v>23</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>23</v>
-      </c>
-      <c r="B44" s="3">
-        <v>2</v>
-      </c>
-      <c r="C44" s="3">
-        <v>22</v>
-      </c>
-      <c r="D44" s="3">
-        <v>12</v>
-      </c>
-      <c r="E44" s="3">
-        <v>28</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>24</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>26</v>
-      </c>
-      <c r="E45" s="3">
-        <v>25</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>25</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
-        <v>24</v>
-      </c>
-      <c r="D46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>26</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <v>25</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>27</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3">
-        <v>26</v>
-      </c>
-      <c r="D48" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E48" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>28</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3">
-        <v>27</v>
-      </c>
-      <c r="D49" s="3">
-        <v>13</v>
-      </c>
-      <c r="E49" s="3">
-        <v>27</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>29</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3">
-        <v>28</v>
-      </c>
-      <c r="D50" s="3">
-        <v>27</v>
-      </c>
-      <c r="E50" s="3">
-        <v>26</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>30</v>
-      </c>
-      <c r="B51" s="3">
-        <v>2</v>
-      </c>
-      <c r="C51" s="3">
-        <v>53</v>
-      </c>
-      <c r="D51" s="3">
-        <v>29</v>
-      </c>
-      <c r="E51" s="3">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>31</v>
-      </c>
-      <c r="B52" s="3">
-        <v>2</v>
-      </c>
-      <c r="C52" s="3">
-        <v>30</v>
-      </c>
-      <c r="D52" s="3">
-        <v>28</v>
-      </c>
-      <c r="E52" s="3">
-        <v>29</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>32</v>
-      </c>
-      <c r="B53" s="3">
-        <v>3</v>
-      </c>
-      <c r="C53" s="3">
-        <v>31</v>
-      </c>
-      <c r="D53" s="3">
-        <v>23</v>
-      </c>
-      <c r="E53" s="3">
-        <v>31</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>33</v>
-      </c>
-      <c r="B54" s="3">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>32</v>
-      </c>
-      <c r="D54" s="3">
-        <v>31</v>
-      </c>
-      <c r="E54" s="3">
-        <v>30</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>34</v>
-      </c>
-      <c r="B55" s="3">
-        <v>3</v>
-      </c>
-      <c r="C55" s="3">
-        <v>33</v>
-      </c>
-      <c r="D55" s="3">
-        <v>30</v>
-      </c>
-      <c r="E55" s="3">
-        <v>35</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>35</v>
-      </c>
-      <c r="B56" s="3">
-        <v>2</v>
-      </c>
-      <c r="C56" s="3">
-        <v>34</v>
-      </c>
-      <c r="D56" s="3">
-        <v>24</v>
-      </c>
-      <c r="E56" s="3">
-        <v>40</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>36</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>38</v>
-      </c>
-      <c r="E57" s="3">
-        <v>37</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>37</v>
-      </c>
-      <c r="B58" s="3">
-        <v>0</v>
-      </c>
-      <c r="C58" s="3">
-        <v>36</v>
-      </c>
-      <c r="D58" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>38</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3">
-        <v>37</v>
-      </c>
-      <c r="D59" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>39</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3">
-        <v>38</v>
-      </c>
-      <c r="D60" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>40</v>
-      </c>
-      <c r="B61" s="3">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3">
-        <v>39</v>
-      </c>
-      <c r="D61" s="3">
-        <v>25</v>
-      </c>
-      <c r="E61" s="3">
-        <v>39</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>41</v>
-      </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3">
-        <v>40</v>
-      </c>
-      <c r="D62" s="3">
-        <v>39</v>
-      </c>
-      <c r="E62" s="3">
-        <v>38</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>42</v>
-      </c>
-      <c r="B63" s="3">
-        <v>2</v>
-      </c>
-      <c r="C63" s="3">
-        <v>17</v>
-      </c>
-      <c r="D63" s="3">
-        <v>41</v>
-      </c>
-      <c r="E63" s="3">
-        <v>36</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>43</v>
-      </c>
-      <c r="B64" s="3">
-        <v>2</v>
-      </c>
-      <c r="C64" s="3">
-        <v>42</v>
-      </c>
-      <c r="D64" s="3">
-        <v>40</v>
-      </c>
-      <c r="E64" s="3">
-        <v>41</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>44</v>
-      </c>
-      <c r="B65" s="3">
-        <v>3</v>
-      </c>
-      <c r="C65" s="3">
-        <v>43</v>
-      </c>
-      <c r="D65" s="3">
-        <v>35</v>
-      </c>
-      <c r="E65" s="3">
-        <v>43</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>45</v>
-      </c>
-      <c r="B66" s="3">
-        <v>3</v>
-      </c>
-      <c r="C66" s="3">
-        <v>44</v>
-      </c>
-      <c r="D66" s="3">
-        <v>43</v>
-      </c>
-      <c r="E66" s="3">
-        <v>42</v>
-      </c>
-      <c r="F66" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>46</v>
-      </c>
-      <c r="B67" s="3">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3">
-        <v>45</v>
-      </c>
-      <c r="D67" s="3">
-        <v>42</v>
-      </c>
-      <c r="E67" s="3">
-        <v>47</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>47</v>
-      </c>
-      <c r="B68" s="3">
-        <v>2</v>
-      </c>
-      <c r="C68" s="3">
-        <v>46</v>
-      </c>
-      <c r="D68" s="3">
-        <v>36</v>
-      </c>
-      <c r="E68" s="3">
-        <v>52</v>
-      </c>
-      <c r="F68" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>48</v>
-      </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D69" s="3">
-        <v>50</v>
-      </c>
-      <c r="E69" s="3">
-        <v>49</v>
-      </c>
-      <c r="F69" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>49</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0</v>
-      </c>
-      <c r="C70" s="3">
-        <v>48</v>
-      </c>
-      <c r="D70" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F70" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>50</v>
-      </c>
-      <c r="B71" s="3">
-        <v>0</v>
-      </c>
-      <c r="C71" s="3">
-        <v>49</v>
-      </c>
-      <c r="D71" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F71" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>51</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0</v>
-      </c>
-      <c r="C72" s="3">
-        <v>50</v>
-      </c>
-      <c r="D72" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F72" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>52</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3">
-        <v>51</v>
-      </c>
-      <c r="D73" s="4">
-        <v>37</v>
-      </c>
-      <c r="E73" s="4">
-        <v>51</v>
-      </c>
-      <c r="F73" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>53</v>
-      </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3">
-        <v>52</v>
-      </c>
-      <c r="D74" s="4">
-        <v>51</v>
-      </c>
-      <c r="E74" s="4">
-        <v>50</v>
-      </c>
-      <c r="F74" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>54</v>
-      </c>
-      <c r="B75" s="3">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2">
-        <v>29</v>
-      </c>
-      <c r="D75" s="4">
-        <v>53</v>
-      </c>
-      <c r="E75" s="4">
-        <v>48</v>
-      </c>
-      <c r="F75" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>55</v>
-      </c>
-      <c r="B76" s="3">
-        <v>2</v>
-      </c>
-      <c r="C76" s="3">
-        <v>54</v>
-      </c>
-      <c r="D76" s="4">
-        <v>52</v>
-      </c>
-      <c r="E76" s="4">
-        <v>53</v>
-      </c>
-      <c r="F76" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>56</v>
-      </c>
-      <c r="B77" s="3">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3">
-        <v>55</v>
-      </c>
-      <c r="D77" s="4">
-        <v>47</v>
-      </c>
-      <c r="E77" s="4">
-        <v>55</v>
-      </c>
-      <c r="F77" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>57</v>
-      </c>
-      <c r="B78" s="3">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3">
-        <v>56</v>
-      </c>
-      <c r="D78" s="4">
-        <v>55</v>
-      </c>
-      <c r="E78" s="4">
-        <v>54</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>58</v>
-      </c>
-      <c r="B79" s="3">
-        <v>3</v>
-      </c>
-      <c r="C79" s="3">
-        <v>57</v>
-      </c>
-      <c r="D79" s="4">
-        <v>54</v>
-      </c>
-      <c r="E79" s="4">
-        <v>59</v>
-      </c>
-      <c r="F79" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>59</v>
-      </c>
-      <c r="B80" s="3">
-        <v>2</v>
-      </c>
-      <c r="C80" s="3">
-        <v>58</v>
-      </c>
-      <c r="D80" s="4">
-        <v>48</v>
-      </c>
-      <c r="E80" s="4">
-        <v>64</v>
-      </c>
-      <c r="F80" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>60</v>
-      </c>
-      <c r="B81" s="3">
-        <v>1</v>
-      </c>
-      <c r="C81" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D81" s="3">
-        <v>62</v>
-      </c>
-      <c r="E81" s="3">
-        <v>61</v>
-      </c>
-      <c r="F81" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>61</v>
-      </c>
-      <c r="B82" s="3">
-        <v>0</v>
-      </c>
-      <c r="C82" s="3">
-        <v>60</v>
-      </c>
-      <c r="D82" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E82" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F82" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>62</v>
-      </c>
-      <c r="B83" s="3">
-        <v>0</v>
-      </c>
-      <c r="C83" s="3">
-        <v>61</v>
-      </c>
-      <c r="D83" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F83" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>63</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0</v>
-      </c>
-      <c r="C84" s="3">
-        <v>62</v>
-      </c>
-      <c r="D84" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E84" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F84" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>64</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3">
-        <v>63</v>
-      </c>
-      <c r="D85" s="3">
-        <v>49</v>
-      </c>
-      <c r="E85" s="3">
-        <v>63</v>
-      </c>
-      <c r="F85" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>65</v>
-      </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3">
-        <v>64</v>
-      </c>
-      <c r="D86" s="3">
-        <v>63</v>
-      </c>
-      <c r="E86" s="3">
-        <v>62</v>
-      </c>
-      <c r="F86" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>66</v>
-      </c>
-      <c r="B87" s="3">
-        <v>2</v>
-      </c>
-      <c r="C87" s="2">
-        <v>5</v>
-      </c>
-      <c r="D87" s="3">
-        <v>65</v>
-      </c>
-      <c r="E87" s="3">
-        <v>60</v>
-      </c>
-      <c r="F87" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>67</v>
-      </c>
-      <c r="B88" s="3">
-        <v>2</v>
-      </c>
-      <c r="C88" s="3">
-        <v>66</v>
-      </c>
-      <c r="D88" s="3">
-        <v>64</v>
-      </c>
-      <c r="E88" s="3">
-        <v>65</v>
-      </c>
-      <c r="F88" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>68</v>
-      </c>
-      <c r="B89" s="3">
-        <v>3</v>
-      </c>
-      <c r="C89" s="3">
-        <v>67</v>
-      </c>
-      <c r="D89" s="3">
-        <v>59</v>
-      </c>
-      <c r="E89" s="3">
-        <v>67</v>
-      </c>
-      <c r="F89" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>69</v>
-      </c>
-      <c r="B90" s="3">
-        <v>3</v>
-      </c>
-      <c r="C90" s="3">
-        <v>68</v>
-      </c>
-      <c r="D90" s="3">
-        <v>67</v>
-      </c>
-      <c r="E90" s="3">
-        <v>66</v>
-      </c>
-      <c r="F90" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>70</v>
-      </c>
-      <c r="B91" s="3">
-        <v>3</v>
-      </c>
-      <c r="C91" s="3">
-        <v>69</v>
-      </c>
-      <c r="D91" s="3">
-        <v>66</v>
-      </c>
-      <c r="E91" s="3">
-        <v>71</v>
-      </c>
-      <c r="F91" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>71</v>
-      </c>
-      <c r="B92" s="3">
-        <v>2</v>
-      </c>
-      <c r="C92" s="3">
-        <v>70</v>
-      </c>
-      <c r="D92" s="3">
-        <v>60</v>
-      </c>
-      <c r="E92" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F92" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="G92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>-256</v>
-      </c>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.2">
@@ -2704,13 +607,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2794,16 +697,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -3139,25 +1042,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
